--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H2">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I2">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J2">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.76348862405485</v>
+        <v>5.038212</v>
       </c>
       <c r="N2">
-        <v>4.76348862405485</v>
+        <v>10.076424</v>
       </c>
       <c r="O2">
-        <v>0.5612353936371299</v>
+        <v>0.5413029757536089</v>
       </c>
       <c r="P2">
-        <v>0.5612353936371299</v>
+        <v>0.4628976670773892</v>
       </c>
       <c r="Q2">
-        <v>284.0088533928674</v>
+        <v>300.859205096958</v>
       </c>
       <c r="R2">
-        <v>284.0088533928674</v>
+        <v>1203.436820387832</v>
       </c>
       <c r="S2">
-        <v>0.2871245512745718</v>
+        <v>0.2493916105089424</v>
       </c>
       <c r="T2">
-        <v>0.2871245512745718</v>
+        <v>0.1863439462796618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H3">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I3">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J3">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.315873185162253</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N3">
-        <v>0.315873185162253</v>
+        <v>1.096807</v>
       </c>
       <c r="O3">
-        <v>0.03721625585893491</v>
+        <v>0.03928013171652883</v>
       </c>
       <c r="P3">
-        <v>0.03721625585893491</v>
+        <v>0.05038587117157337</v>
       </c>
       <c r="Q3">
-        <v>18.83299997452694</v>
+        <v>21.83211571650017</v>
       </c>
       <c r="R3">
-        <v>18.83299997452694</v>
+        <v>130.992694299001</v>
       </c>
       <c r="S3">
-        <v>0.01903960599200064</v>
+        <v>0.01809732395457499</v>
       </c>
       <c r="T3">
-        <v>0.01903960599200064</v>
+        <v>0.02028332121466475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H4">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I4">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J4">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.5818208198131</v>
+        <v>0.1221273333333333</v>
       </c>
       <c r="N4">
-        <v>2.5818208198131</v>
+        <v>0.366382</v>
       </c>
       <c r="O4">
-        <v>0.3041907598542546</v>
+        <v>0.01312129957099587</v>
       </c>
       <c r="P4">
-        <v>0.3041907598542546</v>
+        <v>0.01683110725185324</v>
       </c>
       <c r="Q4">
-        <v>153.9333938991912</v>
+        <v>7.292891293037666</v>
       </c>
       <c r="R4">
-        <v>153.9333938991912</v>
+        <v>43.757347758226</v>
       </c>
       <c r="S4">
-        <v>0.1556221086824301</v>
+        <v>0.006045305824201609</v>
       </c>
       <c r="T4">
-        <v>0.1556221086824301</v>
+        <v>0.006775525496528834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.6220282669866</v>
+        <v>59.7154715</v>
       </c>
       <c r="H5">
-        <v>59.6220282669866</v>
+        <v>119.430943</v>
       </c>
       <c r="I5">
-        <v>0.5115938063240072</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J5">
-        <v>0.5115938063240072</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.826323109310154</v>
+        <v>0.07346266666666666</v>
       </c>
       <c r="N5">
-        <v>0.826323109310154</v>
+        <v>0.220388</v>
       </c>
       <c r="O5">
-        <v>0.0973575906496804</v>
+        <v>0.00789279214004137</v>
       </c>
       <c r="P5">
-        <v>0.0973575906496804</v>
+        <v>0.01012433488823532</v>
       </c>
       <c r="Q5">
-        <v>49.26705978095426</v>
+        <v>4.386857777647333</v>
       </c>
       <c r="R5">
-        <v>49.26705978095426</v>
+        <v>26.321146665884</v>
       </c>
       <c r="S5">
-        <v>0.04980754037500457</v>
+        <v>0.003636403698828393</v>
       </c>
       <c r="T5">
-        <v>0.04980754037500457</v>
+        <v>0.004075649221656623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.04478014091158</v>
+        <v>59.7154715</v>
       </c>
       <c r="H6">
-        <v>1.04478014091158</v>
+        <v>119.430943</v>
       </c>
       <c r="I6">
-        <v>0.008964858536297872</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J6">
-        <v>0.008964858536297872</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.76348862405485</v>
+        <v>2.591826</v>
       </c>
       <c r="N6">
-        <v>4.76348862405485</v>
+        <v>7.775478</v>
       </c>
       <c r="O6">
-        <v>0.5612353936371299</v>
+        <v>0.2784644882818692</v>
       </c>
       <c r="P6">
-        <v>0.5612353936371299</v>
+        <v>0.357195233806315</v>
       </c>
       <c r="Q6">
-        <v>4.976798315870735</v>
+        <v>154.772111635959</v>
       </c>
       <c r="R6">
-        <v>4.976798315870735</v>
+        <v>928.632669815754</v>
       </c>
       <c r="S6">
-        <v>0.00503139590952032</v>
+        <v>0.1282954469361254</v>
       </c>
       <c r="T6">
-        <v>0.00503139590952032</v>
+        <v>0.143792406386501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.04478014091158</v>
+        <v>59.7154715</v>
       </c>
       <c r="H7">
-        <v>1.04478014091158</v>
+        <v>119.430943</v>
       </c>
       <c r="I7">
-        <v>0.008964858536297872</v>
+        <v>0.4607246249879491</v>
       </c>
       <c r="J7">
-        <v>0.008964858536297872</v>
+        <v>0.4025597006271108</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.315873185162253</v>
+        <v>1.1163335</v>
       </c>
       <c r="N7">
-        <v>0.315873185162253</v>
+        <v>2.232667</v>
       </c>
       <c r="O7">
-        <v>0.03721625585893491</v>
+        <v>0.1199383125369558</v>
       </c>
       <c r="P7">
-        <v>0.03721625585893491</v>
+        <v>0.102565785804634</v>
       </c>
       <c r="Q7">
-        <v>0.3300180309040083</v>
+        <v>66.66238130374525</v>
       </c>
       <c r="R7">
-        <v>0.3300180309040083</v>
+        <v>266.649525214981</v>
       </c>
       <c r="S7">
-        <v>0.0003336384690260183</v>
+        <v>0.05525853406527642</v>
       </c>
       <c r="T7">
-        <v>0.0003336384690260183</v>
+        <v>0.04128885202809784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.04478014091158</v>
+        <v>1.12596</v>
       </c>
       <c r="H8">
-        <v>1.04478014091158</v>
+        <v>3.37788</v>
       </c>
       <c r="I8">
-        <v>0.008964858536297872</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J8">
-        <v>0.008964858536297872</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.5818208198131</v>
+        <v>5.038212</v>
       </c>
       <c r="N8">
-        <v>2.5818208198131</v>
+        <v>10.076424</v>
       </c>
       <c r="O8">
-        <v>0.3041907598542546</v>
+        <v>0.5413029757536089</v>
       </c>
       <c r="P8">
-        <v>0.3041907598542546</v>
+        <v>0.4628976670773892</v>
       </c>
       <c r="Q8">
-        <v>2.697435119932782</v>
+        <v>5.67282518352</v>
       </c>
       <c r="R8">
-        <v>2.697435119932782</v>
+        <v>34.03695110112</v>
       </c>
       <c r="S8">
-        <v>0.002727027130142351</v>
+        <v>0.004702382325971399</v>
       </c>
       <c r="T8">
-        <v>0.002727027130142351</v>
+        <v>0.005270388673554591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,320 +962,320 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.04478014091158</v>
+        <v>1.12596</v>
       </c>
       <c r="H9">
-        <v>1.04478014091158</v>
+        <v>3.37788</v>
       </c>
       <c r="I9">
-        <v>0.008964858536297872</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J9">
-        <v>0.008964858536297872</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.826323109310154</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N9">
-        <v>0.826323109310154</v>
+        <v>1.096807</v>
       </c>
       <c r="O9">
-        <v>0.0973575906496804</v>
+        <v>0.03928013171652883</v>
       </c>
       <c r="P9">
-        <v>0.0973575906496804</v>
+        <v>0.05038587117157337</v>
       </c>
       <c r="Q9">
-        <v>0.8633259745835575</v>
+        <v>0.4116536032400001</v>
       </c>
       <c r="R9">
-        <v>0.8633259745835575</v>
+        <v>3.70488242916</v>
       </c>
       <c r="S9">
-        <v>0.0008727970276091811</v>
+        <v>0.0003412325544460159</v>
       </c>
       <c r="T9">
-        <v>0.0008727970276091811</v>
+        <v>0.000573675660122618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.1982556998257</v>
+        <v>1.12596</v>
       </c>
       <c r="H10">
-        <v>35.1982556998257</v>
+        <v>3.37788</v>
       </c>
       <c r="I10">
-        <v>0.3020227612654082</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J10">
-        <v>0.3020227612654082</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.76348862405485</v>
+        <v>0.1221273333333333</v>
       </c>
       <c r="N10">
-        <v>4.76348862405485</v>
+        <v>0.366382</v>
       </c>
       <c r="O10">
-        <v>0.5612353936371299</v>
+        <v>0.01312129957099587</v>
       </c>
       <c r="P10">
-        <v>0.5612353936371299</v>
+        <v>0.01683110725185324</v>
       </c>
       <c r="Q10">
-        <v>167.6664906126935</v>
+        <v>0.13751049224</v>
       </c>
       <c r="R10">
-        <v>167.6664906126935</v>
+        <v>1.23759443016</v>
       </c>
       <c r="S10">
-        <v>0.1695058633061643</v>
+        <v>0.000113986750415561</v>
       </c>
       <c r="T10">
-        <v>0.1695058633061643</v>
+        <v>0.0001916330181217343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.1982556998257</v>
+        <v>1.12596</v>
       </c>
       <c r="H11">
-        <v>35.1982556998257</v>
+        <v>3.37788</v>
       </c>
       <c r="I11">
-        <v>0.3020227612654082</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J11">
-        <v>0.3020227612654082</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.315873185162253</v>
+        <v>0.07346266666666666</v>
       </c>
       <c r="N11">
-        <v>0.315873185162253</v>
+        <v>0.220388</v>
       </c>
       <c r="O11">
-        <v>0.03721625585893491</v>
+        <v>0.00789279214004137</v>
       </c>
       <c r="P11">
-        <v>0.03721625585893491</v>
+        <v>0.01012433488823532</v>
       </c>
       <c r="Q11">
-        <v>11.11818514005937</v>
+        <v>0.08271602416</v>
       </c>
       <c r="R11">
-        <v>11.11818514005937</v>
+        <v>0.74444421744</v>
       </c>
       <c r="S11">
-        <v>0.01124015635847544</v>
+        <v>6.856590102839291E-05</v>
       </c>
       <c r="T11">
-        <v>0.01124015635847544</v>
+        <v>0.0001152720865048304</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.1982556998257</v>
+        <v>1.12596</v>
       </c>
       <c r="H12">
-        <v>35.1982556998257</v>
+        <v>3.37788</v>
       </c>
       <c r="I12">
-        <v>0.3020227612654082</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J12">
-        <v>0.3020227612654082</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.5818208198131</v>
+        <v>2.591826</v>
       </c>
       <c r="N12">
-        <v>2.5818208198131</v>
+        <v>7.775478</v>
       </c>
       <c r="O12">
-        <v>0.3041907598542546</v>
+        <v>0.2784644882818692</v>
       </c>
       <c r="P12">
-        <v>0.3041907598542546</v>
+        <v>0.357195233806315</v>
       </c>
       <c r="Q12">
-        <v>90.87558938691511</v>
+        <v>2.91829240296</v>
       </c>
       <c r="R12">
-        <v>90.87558938691511</v>
+        <v>26.26463162664</v>
       </c>
       <c r="S12">
-        <v>0.09187253324260465</v>
+        <v>0.002419063900922221</v>
       </c>
       <c r="T12">
-        <v>0.09187253324260465</v>
+        <v>0.004066898255042951</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.1982556998257</v>
+        <v>1.12596</v>
       </c>
       <c r="H13">
-        <v>35.1982556998257</v>
+        <v>3.37788</v>
       </c>
       <c r="I13">
-        <v>0.3020227612654082</v>
+        <v>0.008687154027602902</v>
       </c>
       <c r="J13">
-        <v>0.3020227612654082</v>
+        <v>0.01138564535619806</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.826323109310154</v>
+        <v>1.1163335</v>
       </c>
       <c r="N13">
-        <v>0.826323109310154</v>
+        <v>2.232667</v>
       </c>
       <c r="O13">
-        <v>0.0973575906496804</v>
+        <v>0.1199383125369558</v>
       </c>
       <c r="P13">
-        <v>0.0973575906496804</v>
+        <v>0.102565785804634</v>
       </c>
       <c r="Q13">
-        <v>29.08513209217382</v>
+        <v>1.25694686766</v>
       </c>
       <c r="R13">
-        <v>29.08513209217382</v>
+        <v>7.541681205960001</v>
       </c>
       <c r="S13">
-        <v>0.02940420835816376</v>
+        <v>0.001041922594819312</v>
       </c>
       <c r="T13">
-        <v>0.02940420835816376</v>
+        <v>0.001167777662851336</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1278,60 +1284,60 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>20.6766678874173</v>
+        <v>0.031281</v>
       </c>
       <c r="H14">
-        <v>20.6766678874173</v>
+        <v>0.093843</v>
       </c>
       <c r="I14">
-        <v>0.1774185738742869</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J14">
-        <v>0.1774185738742869</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.76348862405485</v>
+        <v>5.038212</v>
       </c>
       <c r="N14">
-        <v>4.76348862405485</v>
+        <v>10.076424</v>
       </c>
       <c r="O14">
-        <v>0.5612353936371299</v>
+        <v>0.5413029757536089</v>
       </c>
       <c r="P14">
-        <v>0.5612353936371299</v>
+        <v>0.4628976670773892</v>
       </c>
       <c r="Q14">
-        <v>98.49307226507254</v>
+        <v>0.157600309572</v>
       </c>
       <c r="R14">
-        <v>98.49307226507254</v>
+        <v>0.9456018574319999</v>
       </c>
       <c r="S14">
-        <v>0.09957358314687363</v>
+        <v>0.0001306398287139075</v>
       </c>
       <c r="T14">
-        <v>0.09957358314687363</v>
+        <v>0.0001464199688243465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1340,60 +1346,60 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>20.6766678874173</v>
+        <v>0.031281</v>
       </c>
       <c r="H15">
-        <v>20.6766678874173</v>
+        <v>0.093843</v>
       </c>
       <c r="I15">
-        <v>0.1774185738742869</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J15">
-        <v>0.1774185738742869</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.315873185162253</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N15">
-        <v>0.315873185162253</v>
+        <v>1.096807</v>
       </c>
       <c r="O15">
-        <v>0.03721625585893491</v>
+        <v>0.03928013171652883</v>
       </c>
       <c r="P15">
-        <v>0.03721625585893491</v>
+        <v>0.05038587117157337</v>
       </c>
       <c r="Q15">
-        <v>6.531204944140574</v>
+        <v>0.011436406589</v>
       </c>
       <c r="R15">
-        <v>6.531204944140574</v>
+        <v>0.102927659301</v>
       </c>
       <c r="S15">
-        <v>0.006602855039432806</v>
+        <v>9.479995324546007E-06</v>
       </c>
       <c r="T15">
-        <v>0.006602855039432806</v>
+        <v>1.593764283304524E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1402,60 +1408,60 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>20.6766678874173</v>
+        <v>0.031281</v>
       </c>
       <c r="H16">
-        <v>20.6766678874173</v>
+        <v>0.093843</v>
       </c>
       <c r="I16">
-        <v>0.1774185738742869</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J16">
-        <v>0.1774185738742869</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.5818208198131</v>
+        <v>0.1221273333333333</v>
       </c>
       <c r="N16">
-        <v>2.5818208198131</v>
+        <v>0.366382</v>
       </c>
       <c r="O16">
-        <v>0.3041907598542546</v>
+        <v>0.01312129957099587</v>
       </c>
       <c r="P16">
-        <v>0.3041907598542546</v>
+        <v>0.01683110725185324</v>
       </c>
       <c r="Q16">
-        <v>53.38345163609493</v>
+        <v>0.003820265113999999</v>
       </c>
       <c r="R16">
-        <v>53.38345163609493</v>
+        <v>0.03438238602599999</v>
       </c>
       <c r="S16">
-        <v>0.05396909079907755</v>
+        <v>3.166737308384989E-06</v>
       </c>
       <c r="T16">
-        <v>0.05396909079907755</v>
+        <v>5.323876904921995E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1464,49 +1470,1289 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>20.6766678874173</v>
+        <v>0.031281</v>
       </c>
       <c r="H17">
-        <v>20.6766678874173</v>
+        <v>0.093843</v>
       </c>
       <c r="I17">
-        <v>0.1774185738742869</v>
+        <v>0.0002413432672008298</v>
       </c>
       <c r="J17">
-        <v>0.1774185738742869</v>
+        <v>0.0003163117449884823</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.826323109310154</v>
+        <v>0.07346266666666666</v>
       </c>
       <c r="N17">
-        <v>0.826323109310154</v>
+        <v>0.220388</v>
       </c>
       <c r="O17">
-        <v>0.0973575906496804</v>
+        <v>0.00789279214004137</v>
       </c>
       <c r="P17">
-        <v>0.0973575906496804</v>
+        <v>0.01012433488823532</v>
       </c>
       <c r="Q17">
-        <v>17.08560849890408</v>
+        <v>0.002297985676</v>
       </c>
       <c r="R17">
-        <v>17.08560849890408</v>
+        <v>0.020681871084</v>
       </c>
       <c r="S17">
-        <v>0.01727304488890291</v>
+        <v>1.904872242414613E-06</v>
       </c>
       <c r="T17">
-        <v>0.01727304488890291</v>
+        <v>3.202446035345483E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.031281</v>
+      </c>
+      <c r="H18">
+        <v>0.093843</v>
+      </c>
+      <c r="I18">
+        <v>0.0002413432672008298</v>
+      </c>
+      <c r="J18">
+        <v>0.0003163117449884823</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.591826</v>
+      </c>
+      <c r="N18">
+        <v>7.775478</v>
+      </c>
+      <c r="O18">
+        <v>0.2784644882818692</v>
+      </c>
+      <c r="P18">
+        <v>0.357195233806315</v>
+      </c>
+      <c r="Q18">
+        <v>0.08107490910599999</v>
+      </c>
+      <c r="R18">
+        <v>0.7296741819539999</v>
+      </c>
+      <c r="S18">
+        <v>6.720552940135349E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001129850477068444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.031281</v>
+      </c>
+      <c r="H19">
+        <v>0.093843</v>
+      </c>
+      <c r="I19">
+        <v>0.0002413432672008298</v>
+      </c>
+      <c r="J19">
+        <v>0.0003163117449884823</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.1163335</v>
+      </c>
+      <c r="N19">
+        <v>2.232667</v>
+      </c>
+      <c r="O19">
+        <v>0.1199383125369558</v>
+      </c>
+      <c r="P19">
+        <v>0.102565785804634</v>
+      </c>
+      <c r="Q19">
+        <v>0.0349200282135</v>
+      </c>
+      <c r="R19">
+        <v>0.209520169281</v>
+      </c>
+      <c r="S19">
+        <v>2.894630421022317E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.244276268397868E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02706633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.08119899999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.0002088257190567243</v>
+      </c>
+      <c r="J20">
+        <v>0.0002736932683452124</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.038212</v>
+      </c>
+      <c r="N20">
+        <v>10.076424</v>
+      </c>
+      <c r="O20">
+        <v>0.5413029757536089</v>
+      </c>
+      <c r="P20">
+        <v>0.4628976670773892</v>
+      </c>
+      <c r="Q20">
+        <v>0.136365925396</v>
+      </c>
+      <c r="R20">
+        <v>0.8181955523759998</v>
+      </c>
+      <c r="S20">
+        <v>0.000113037983139292</v>
+      </c>
+      <c r="T20">
+        <v>0.0001266919754117847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02706633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.08119899999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.0002088257190567243</v>
+      </c>
+      <c r="J21">
+        <v>0.0002736932683452124</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3656023333333334</v>
+      </c>
+      <c r="N21">
+        <v>1.096807</v>
+      </c>
+      <c r="O21">
+        <v>0.03928013171652883</v>
+      </c>
+      <c r="P21">
+        <v>0.05038587117157337</v>
+      </c>
+      <c r="Q21">
+        <v>0.009895514621444444</v>
+      </c>
+      <c r="R21">
+        <v>0.089059631593</v>
+      </c>
+      <c r="S21">
+        <v>8.202701750346975E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.379027375936873E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.02706633333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.08119899999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.0002088257190567243</v>
+      </c>
+      <c r="J22">
+        <v>0.0002736932683452124</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1221273333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.366382</v>
+      </c>
+      <c r="O22">
+        <v>0.01312129957099587</v>
+      </c>
+      <c r="P22">
+        <v>0.01683110725185324</v>
+      </c>
+      <c r="Q22">
+        <v>0.00330553911311111</v>
+      </c>
+      <c r="R22">
+        <v>0.029749852018</v>
+      </c>
+      <c r="S22">
+        <v>2.740064817871901E-06</v>
+      </c>
+      <c r="T22">
+        <v>4.606560753628519E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.02706633333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.08119899999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.0002088257190567243</v>
+      </c>
+      <c r="J23">
+        <v>0.0002736932683452124</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.07346266666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.220388</v>
+      </c>
+      <c r="O23">
+        <v>0.00789279214004137</v>
+      </c>
+      <c r="P23">
+        <v>0.01012433488823532</v>
+      </c>
+      <c r="Q23">
+        <v>0.001988365023555555</v>
+      </c>
+      <c r="R23">
+        <v>0.017895285212</v>
+      </c>
+      <c r="S23">
+        <v>1.648217994009401E-06</v>
+      </c>
+      <c r="T23">
+        <v>2.770962305382584E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.02706633333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.08119899999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.0002088257190567243</v>
+      </c>
+      <c r="J24">
+        <v>0.0002736932683452124</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.591826</v>
+      </c>
+      <c r="N24">
+        <v>7.775478</v>
+      </c>
+      <c r="O24">
+        <v>0.2784644882818692</v>
+      </c>
+      <c r="P24">
+        <v>0.357195233806315</v>
+      </c>
+      <c r="Q24">
+        <v>0.07015122645799998</v>
+      </c>
+      <c r="R24">
+        <v>0.631361038122</v>
+      </c>
+      <c r="S24">
+        <v>5.815054699722412E-05</v>
+      </c>
+      <c r="T24">
+        <v>9.776193097778266E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02706633333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.08119899999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.0002088257190567243</v>
+      </c>
+      <c r="J25">
+        <v>0.0002736932683452124</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.1163335</v>
+      </c>
+      <c r="N25">
+        <v>2.232667</v>
+      </c>
+      <c r="O25">
+        <v>0.1199383125369558</v>
+      </c>
+      <c r="P25">
+        <v>0.102565785804634</v>
+      </c>
+      <c r="Q25">
+        <v>0.03021505462216667</v>
+      </c>
+      <c r="R25">
+        <v>0.181290327733</v>
+      </c>
+      <c r="S25">
+        <v>2.504620435797994E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.807156513726527E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H26">
+        <v>108.811174</v>
+      </c>
+      <c r="I26">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J26">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.038212</v>
+      </c>
+      <c r="N26">
+        <v>10.076424</v>
+      </c>
+      <c r="O26">
+        <v>0.5413029757536089</v>
+      </c>
+      <c r="P26">
+        <v>0.4628976670773892</v>
+      </c>
+      <c r="Q26">
+        <v>182.737920860296</v>
+      </c>
+      <c r="R26">
+        <v>1096.427525161776</v>
+      </c>
+      <c r="S26">
+        <v>0.1514771813935955</v>
+      </c>
+      <c r="T26">
+        <v>0.1697742900889841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H27">
+        <v>108.811174</v>
+      </c>
+      <c r="I27">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J27">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.3656023333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.096807</v>
+      </c>
+      <c r="O27">
+        <v>0.03928013171652883</v>
+      </c>
+      <c r="P27">
+        <v>0.05038587117157337</v>
+      </c>
+      <c r="Q27">
+        <v>13.26053970237978</v>
+      </c>
+      <c r="R27">
+        <v>119.344857321418</v>
+      </c>
+      <c r="S27">
+        <v>0.01099207634856475</v>
+      </c>
+      <c r="T27">
+        <v>0.01847973346393805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H28">
+        <v>108.811174</v>
+      </c>
+      <c r="I28">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J28">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1221273333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.366382</v>
+      </c>
+      <c r="O28">
+        <v>0.01312129957099587</v>
+      </c>
+      <c r="P28">
+        <v>0.01683110725185324</v>
+      </c>
+      <c r="Q28">
+        <v>4.429606172496444</v>
+      </c>
+      <c r="R28">
+        <v>39.866455552468</v>
+      </c>
+      <c r="S28">
+        <v>0.003671839181132004</v>
+      </c>
+      <c r="T28">
+        <v>0.006173047496947547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H29">
+        <v>108.811174</v>
+      </c>
+      <c r="I29">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J29">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07346266666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.220388</v>
+      </c>
+      <c r="O29">
+        <v>0.00789279214004137</v>
+      </c>
+      <c r="P29">
+        <v>0.01012433488823532</v>
+      </c>
+      <c r="Q29">
+        <v>2.664519668390222</v>
+      </c>
+      <c r="R29">
+        <v>23.980677015512</v>
+      </c>
+      <c r="S29">
+        <v>0.00220870373940674</v>
+      </c>
+      <c r="T29">
+        <v>0.003713243532043812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H30">
+        <v>108.811174</v>
+      </c>
+      <c r="I30">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J30">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.591826</v>
+      </c>
+      <c r="N30">
+        <v>7.775478</v>
+      </c>
+      <c r="O30">
+        <v>0.2784644882818692</v>
+      </c>
+      <c r="P30">
+        <v>0.357195233806315</v>
+      </c>
+      <c r="Q30">
+        <v>94.00654328790797</v>
+      </c>
+      <c r="R30">
+        <v>846.0588895911719</v>
+      </c>
+      <c r="S30">
+        <v>0.07792496567088425</v>
+      </c>
+      <c r="T30">
+        <v>0.1310064222736672</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>36.27039133333333</v>
+      </c>
+      <c r="H31">
+        <v>108.811174</v>
+      </c>
+      <c r="I31">
+        <v>0.2798380725373015</v>
+      </c>
+      <c r="J31">
+        <v>0.3667641946888459</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.1163335</v>
+      </c>
+      <c r="N31">
+        <v>2.232667</v>
+      </c>
+      <c r="O31">
+        <v>0.1199383125369558</v>
+      </c>
+      <c r="P31">
+        <v>0.102565785804634</v>
+      </c>
+      <c r="Q31">
+        <v>40.48985290350966</v>
+      </c>
+      <c r="R31">
+        <v>242.939117421058</v>
+      </c>
+      <c r="S31">
+        <v>0.03356330620371818</v>
+      </c>
+      <c r="T31">
+        <v>0.03761745783326526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>32.441898</v>
+      </c>
+      <c r="H32">
+        <v>64.883796</v>
+      </c>
+      <c r="I32">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J32">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.038212</v>
+      </c>
+      <c r="N32">
+        <v>10.076424</v>
+      </c>
+      <c r="O32">
+        <v>0.5413029757536089</v>
+      </c>
+      <c r="P32">
+        <v>0.4628976670773892</v>
+      </c>
+      <c r="Q32">
+        <v>163.449159806376</v>
+      </c>
+      <c r="R32">
+        <v>653.796639225504</v>
+      </c>
+      <c r="S32">
+        <v>0.1354881237132464</v>
+      </c>
+      <c r="T32">
+        <v>0.1012359300909525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>32.441898</v>
+      </c>
+      <c r="H33">
+        <v>64.883796</v>
+      </c>
+      <c r="I33">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J33">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.3656023333333334</v>
+      </c>
+      <c r="N33">
+        <v>1.096807</v>
+      </c>
+      <c r="O33">
+        <v>0.03928013171652883</v>
+      </c>
+      <c r="P33">
+        <v>0.05038587117157337</v>
+      </c>
+      <c r="Q33">
+        <v>11.860833606562</v>
+      </c>
+      <c r="R33">
+        <v>71.16500163937201</v>
+      </c>
+      <c r="S33">
+        <v>0.009831816161868179</v>
+      </c>
+      <c r="T33">
+        <v>0.01101941291625555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>32.441898</v>
+      </c>
+      <c r="H34">
+        <v>64.883796</v>
+      </c>
+      <c r="I34">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J34">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1221273333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.366382</v>
+      </c>
+      <c r="O34">
+        <v>0.01312129957099587</v>
+      </c>
+      <c r="P34">
+        <v>0.01683110725185324</v>
+      </c>
+      <c r="Q34">
+        <v>3.962042491012</v>
+      </c>
+      <c r="R34">
+        <v>23.772254946072</v>
+      </c>
+      <c r="S34">
+        <v>0.003284261013120437</v>
+      </c>
+      <c r="T34">
+        <v>0.003680970802596573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>32.441898</v>
+      </c>
+      <c r="H35">
+        <v>64.883796</v>
+      </c>
+      <c r="I35">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J35">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07346266666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.220388</v>
+      </c>
+      <c r="O35">
+        <v>0.00789279214004137</v>
+      </c>
+      <c r="P35">
+        <v>0.01012433488823532</v>
+      </c>
+      <c r="Q35">
+        <v>2.383268338808</v>
+      </c>
+      <c r="R35">
+        <v>14.299610032848</v>
+      </c>
+      <c r="S35">
+        <v>0.001975565710541421</v>
+      </c>
+      <c r="T35">
+        <v>0.002214196639689323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>32.441898</v>
+      </c>
+      <c r="H36">
+        <v>64.883796</v>
+      </c>
+      <c r="I36">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J36">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.591826</v>
+      </c>
+      <c r="N36">
+        <v>7.775478</v>
+      </c>
+      <c r="O36">
+        <v>0.2784644882818692</v>
+      </c>
+      <c r="P36">
+        <v>0.357195233806315</v>
+      </c>
+      <c r="Q36">
+        <v>84.08375472574799</v>
+      </c>
+      <c r="R36">
+        <v>504.502528354488</v>
+      </c>
+      <c r="S36">
+        <v>0.06969965569753882</v>
+      </c>
+      <c r="T36">
+        <v>0.07811875991241926</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>32.441898</v>
+      </c>
+      <c r="H37">
+        <v>64.883796</v>
+      </c>
+      <c r="I37">
+        <v>0.2502999794608889</v>
+      </c>
+      <c r="J37">
+        <v>0.2187004543145115</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.1163335</v>
+      </c>
+      <c r="N37">
+        <v>2.232667</v>
+      </c>
+      <c r="O37">
+        <v>0.1199383125369558</v>
+      </c>
+      <c r="P37">
+        <v>0.102565785804634</v>
+      </c>
+      <c r="Q37">
+        <v>36.215977540983</v>
+      </c>
+      <c r="R37">
+        <v>144.863910163932</v>
+      </c>
+      <c r="S37">
+        <v>0.03002055716457373</v>
+      </c>
+      <c r="T37">
+        <v>0.02243118395259834</v>
       </c>
     </row>
   </sheetData>
